--- a/Data/Transitions/19341949Translation.xlsx
+++ b/Data/Transitions/19341949Translation.xlsx
@@ -91,7 +91,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -136,7 +136,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -148,13 +148,13 @@
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297, 172.0: 0.0017460035917788175}</t>
+    <t>{81.0: 0.9994958830448664, 172.0: 0.0017369111696087657}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008743055389971149, 492.0: 0.0034375, 97.0: 1.3291445142580957e-05, 696.0: 3.4640577762848506e-06}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008789371494318998, 492.0: 0.0034375, 97.0: 1.3250883392226149e-05, 696.0: 3.365698433420365e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -190,10 +190,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9618488000094441, 92.0: 0.040265849431765505, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.038151199990555905}</t>
+    <t>{91.0: 0.9618488000094441, 92.0: 0.0395714828352435, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038151199990555905}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -229,7 +229,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544, 543.0: -1.4683990330864291e-05}</t>
+    <t>{107.0: 1.0, 543.0: 0.0011476115334959117}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -247,10 +247,10 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -271,10 +271,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022369285492871666}</t>
+    <t>{152.0: 0.9995732878173672}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022648901561532565}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -286,7 +286,7 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -301,13 +301,13 @@
     <t>{171.0: 0.9942528735632183}</t>
   </si>
   <si>
-    <t>{172.0: 0.9982531055900621}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.0026954824780397197, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{172.0: 0.9982622127823905}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0027291760090152163, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,34 +319,34 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432}</t>
+    <t>{178.0: 0.976087630142054}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0024306208616427754, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.002432709592326763, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -355,13 +355,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -370,7 +370,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,7 +394,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -439,10 +439,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -460,7 +463,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,7 +502,7 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -508,7 +511,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -529,7 +532,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9599522626511527}</t>
+    <t>{277.0: 0.9599185850192897}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -541,7 +544,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239}</t>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,10 +583,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -595,7 +598,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -610,7 +613,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -628,7 +631,7 @@
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -637,9 +640,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -652,16 +652,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.9951897006246145, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018911240424169227}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.9951154767824871, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019288581928823538}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -670,7 +670,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -685,7 +685,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -700,7 +700,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -709,13 +709,13 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9990803893018622}</t>
@@ -724,10 +724,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -769,13 +769,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -799,16 +799,16 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.003849685838569357, 696.0: 0.0010033170977494122, 85.0: 0.0014232697124584544, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.003837937680693864, 696.0: 0.0009748286553524804, 85.0: 0.0014232193527988638, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -826,19 +826,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 4.459150730131028e-06}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 4.458093304345013e-06}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -874,7 +874,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -892,7 +892,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -943,7 +943,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104}</t>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -958,7 +958,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -979,16 +979,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 1.0, 686.0: 0.009832174944905916, 171.0: 0.005747126436781609}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{593.0: 1.0, 686.0: 0.009728279100972828, 171.0: 0.005747126436781609}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
+    <t>{597.0: 0.9973572083490643}</t>
   </si>
   <si>
     <t>{598.0: 1.0}</t>
@@ -1009,7 +1009,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1042,7 +1042,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1054,7 +1054,7 @@
     <t>{618.0: 1.0}</t>
   </si>
   <si>
-    <t>{619.0: 1.0, 861.0: 0.015839714675338297}</t>
+    <t>{619.0: 1.0, 861.0: 0.015856347789562113}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1081,7 +1081,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0011817950186500195}</t>
+    <t>{702.0: 0.0010744560484802531}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1129,10 +1129,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.990167825055094}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658, 502.0: 4.369735659003756e-05}</t>
+    <t>{686.0: 0.9902717208990272}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516, 502.0: 4.332111677840183e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1153,10 +1153,10 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9801570036886409, 857.0: 0.0024257779971912793}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9802098910129465, 857.0: 0.0024252027575636867}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8123152474620813}</t>
+    <t>{702.0: 0.8122887726510712}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1240,7 +1240,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1282,7 +1282,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1291,7 +1291,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1309,10 +1309,10 @@
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213, 172.0: 8.908181590708252e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591, 172.0: 8.760480008114152e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1324,10 +1324,10 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1345,13 +1345,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 1.0, 836.0: 0.0014807502467917078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9985192497532083}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.01770212765957447}</t>
+    <t>{835.0: 1.0, 836.0: 0.0014044943820224719}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9985955056179775}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.01770212765957447}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1381,25 +1381,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 634.0: 0.8040555944472704}</t>
+    <t>{848.0: 1.0, 634.0: 0.8100037610480787}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1408,7 +1408,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975697628520787, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 0.997570339149132, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1420,7 +1420,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1453,25 +1453,25 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1492,13 +1492,13 @@
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1507,7 +1507,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919}</t>
+    <t>{922.0: 0.9965078673810798}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1534,19 +1534,19 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.09421646692390045}</t>
+    <t>{933.0: 1.0, 249.0: 0.09502178943540394}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1555,19 +1555,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{972.0: 1.0, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{972.0: 1.0, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1579,13 +1579,13 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1603,7 +1603,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6522559926848331}</t>
+    <t>{992.0: 0.6522602170250872}</t>
   </si>
   <si>
     <t>{5.0: 1.0}</t>
@@ -1633,31 +1633,31 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816089}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100289, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985303723056826, 172.0: 0.0014696276943174393}</t>
-  </si>
-  <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{75.0: 0.8878903617164684, 917.0: 0.11210963828353182}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613507, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985291714332409, 172.0: 0.001470828566759274}</t>
+  </si>
+  <si>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180958, 694.0: 0.011355364681904206}</t>
   </si>
   <si>
-    <t>{91.0: 0.9628148011524467, 92.0: 0.004566266646967782, 104.0: 0.02105173164039654, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.6191995704593853, 91.0: 0.38080042954061477}</t>
+    <t>{91.0: 0.9628148011524468, 92.0: 0.004334749724608858, 104.0: 0.021283248562755454, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.6191995704593853, 91.0: 0.3808004295406149}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9991815856777492, 543.0: 0.0008184143222506397}</t>
+    <t>{107.0: 0.9991869092387434, 543.0: 0.0008130907612562256}</t>
   </si>
   <si>
     <t>{109.0: 0.7842488823565436, 110.0: 0.21575111764345645}</t>
@@ -1669,7 +1669,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.01528807758128922}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1684,10 +1684,10 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659923, 404.0: 0.00014089475774519664}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.9992304732589453, 893.0: 0.0007695267410542517}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.0218916729923871, 404.0: 0.00014074475001802581}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1696,10 +1696,10 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9551925469933331, 404.0: 0.0061476591922338415, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9852869053457576, 502.0: 0.014713094654242276}</t>
+    <t>{173.0: 0.9551990922786057, 404.0: 0.006141113906961301, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9852869053457574, 502.0: 0.014713094654242276}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
@@ -1708,16 +1708,16 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.595067882846497, 180.0: 0.4047509394724499, 850.0: 0.0001811776810530214}</t>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.0001807168946994059}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069352, 850.0: 0.0004474272930648769}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835213, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749618}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676934, 182.0: 0.0037645448323066406}</t>
+    <t>{182.0: 0.9971634886605053, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794812}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.003599476439790576}</t>
   </si>
   <si>
     <t>{202.0: 0.8125259307831424, 307.0: 0.18747406921685753}</t>
@@ -1726,7 +1726,7 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639669, 688.0: 0.0019142983360329847}</t>
@@ -1738,19 +1738,19 @@
     <t>{212.0: 0.9935532802427001, 681.0: 0.006446719757299962}</t>
   </si>
   <si>
-    <t>{222.0: 0.8416485635345012, 490.0: 0.0027640346914105107, 503.0: 0.15558740177408845}</t>
+    <t>{222.0: 0.8413236115648749, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.99756178276281, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524385, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427764, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893287, 241.0: 0.7619738000310671}</t>
+    <t>{240.0: 0.23802619996893293, 241.0: 0.7619738000310671}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1765,10 +1765,10 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492866}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862113, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1777,25 +1777,25 @@
     <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102326}</t>
   </si>
   <si>
-    <t>{282.0: 0.996816553919618, 182.0: 0.003183446080382013}</t>
+    <t>{282.0: 0.9967186218211647, 182.0: 0.0032813781788351114}</t>
   </si>
   <si>
     <t>{285.0: 0.997181439569223, 311.0: 0.0028185604307769973}</t>
   </si>
   <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938826, 297.0: 0.013922582006117503}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095122}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662858, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.928113721687963, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{311.0: 1.0}</t>
@@ -1804,7 +1804,7 @@
     <t>{226.0: 0.9416873449131513, 5.0: 0.05303970223325062, 759.0: 0.005272952853598015}</t>
   </si>
   <si>
-    <t>{317.0: 0.9822371579452716, 71.0: 0.017762842054728757}</t>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -1822,22 +1822,22 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597467, 212.0: 0.00016450074025333114}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932028}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -1846,7 +1846,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749247, 431.0: 0.00018684574941587383, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1864,16 +1864,16 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977857, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923823, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869783, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.981430864743395, 97.0: 0.002007871515969779, 696.0: 0.0005019678789924448, 85.0: 0.0005274745625237669, 178.0: 0.015531821299119224}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066559, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9814308647433947, 97.0: 0.002007871515969779, 696.0: 0.0005019678789924448, 85.0: 0.0005274745625237669, 178.0: 0.015531821299119224}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -1882,7 +1882,7 @@
     <t>{500.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409935, 695.0: 0.0011700158119279725, 857.0: 7.285812748269429e-06}</t>
+    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409935, 695.0: 0.0011699865195521572, 857.0: 7.315105124084837e-06}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -1915,7 +1915,7 @@
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643214, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.9884629037983671, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1930,7 +1930,7 @@
     <t>{588.0: 0.9977079990831996, 507.0: 0.0022920009168003667}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774044}</t>
@@ -1942,7 +1942,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.025141242937853105}</t>
@@ -1957,7 +1957,7 @@
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{619.0: 0.978517570066866, 861.0: 0.021482429933134154}</t>
+    <t>{619.0: 0.9784562705093449, 861.0: 0.021543729490654872}</t>
   </si>
   <si>
     <t>{621.0: 1.0}</t>
@@ -1978,7 +1978,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852505, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -1993,10 +1993,10 @@
     <t>{694.0: 0.9398443029016278, 86.0: 0.06015569709837226}</t>
   </si>
   <si>
-    <t>{695.0: 0.99381143065162, 857.0: 0.006188569348380052}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9974817134579118, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9937865497076022, 857.0: 0.006213450292397661}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9974817134579118, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -2005,7 +2005,7 @@
     <t>{734.0: 0.27414480841290945, 73.0: 0.13368790039888795, 888.0: 0.5921672911882025}</t>
   </si>
   <si>
-    <t>{752.0: 0.8066928545138229, 580.0: 0.1933071454861769}</t>
+    <t>{752.0: 0.8066160041894901, 580.0: 0.19338399581050952}</t>
   </si>
   <si>
     <t>{758.0: 0.9991689750692521, 583.0: 0.0008310249307479224}</t>
@@ -2017,13 +2017,13 @@
     <t>{762.0: 0.9509029955661301, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100494, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.000349340071943679, 172.0: 5.141554615687834e-07}</t>
+    <t>{781.0: 0.9996501457725946, 81.0: 0.00034933965181337877, 172.0: 5.145755918691338e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2032,7 +2032,7 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 0.8357348703170028, 500.0: 0.16426512968299709}</t>
+    <t>{787.0: 0.8360891445003593, 500.0: 0.16391085549964055}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2059,19 +2059,19 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8497991839662072, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269259e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.99734555984556, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.992811225258056, 695.0: 0.007188774741944104}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9915451278799411, 490.0: 0.008454872120059184}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8497991839662072, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269259e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919552, 695.0: 0.007258241308044794}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.991536182818451, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -2101,13 +2101,13 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418463, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478531, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8788491693144438, 249.0: 0.12115083068555586}</t>
+    <t>{933.0: 0.8793518814625306, 249.0: 0.12064811853746933}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -2122,19 +2122,19 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172719, 634.0: 0.08685562738272834}</t>
+    <t>{943.0: 0.9149350649350652, 634.0: 0.08506493506493505}</t>
   </si>
   <si>
     <t>{971.0: 0.9989698686582539, 152.0: 0.0010301313417460727}</t>
   </si>
   <si>
-    <t>{972.0: 0.954137587238285, 615.0: 0.04586241276171485}</t>
+    <t>{972.0: 0.9537688442211055, 615.0: 0.04623115577889449}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601318, 489.0: 0.04917254413384412, 935.0: 0.00041186400602402645}</t>
+    <t>{978.0: 0.9504155918601318, 489.0: 0.04917437168691644, 935.0: 0.0004100364529517133}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -4112,40 +4112,40 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>580</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4244,40 +4244,40 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>582</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>583</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4288,29 +4288,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>584</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4365,29 +4365,29 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>585</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>585</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4398,40 +4398,40 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>586</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4442,29 +4442,29 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>588</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>588</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4552,40 +4552,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>589</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>590</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4596,40 +4596,40 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>591</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4662,62 +4662,62 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>593</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>594</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>595</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4728,29 +4728,29 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>596</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>596</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
